--- a/CorrectLink/ig/StructureDefinition-FrMedication.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="297">
   <si>
     <t>Property</t>
   </si>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -325,17 +325,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Medication.meta.id</t>
   </si>
   <si>
@@ -496,12 +489,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>Medication.meta.tag</t>
   </si>
   <si>
@@ -618,6 +605,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Medication.extension</t>
   </si>
   <si>
@@ -663,9 +653,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Medication.code</t>
@@ -743,13 +730,6 @@
     <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>no mapping</t>
   </si>
   <si>
@@ -804,14 +784,7 @@
     <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
     <t>Le médicament d'une MedicationRequest ou MedicationStatement n'est pas une boite contenant plusieurs unités</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -927,6 +900,14 @@
     <t>unit SHALL be UCUM encoded</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
     <t>RTO</t>
   </si>
   <si>
@@ -958,9 +939,6 @@
   </si>
   <si>
     <t>The assigned lot number of a batch of the specified product.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>RXA-15 Substance Lot Number / RXG-19 Substance Lot Number</t>
@@ -1796,16 +1774,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -1816,10 +1794,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1842,13 +1820,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1899,7 +1877,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1917,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -1928,14 +1906,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1954,16 +1932,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2001,19 +1979,19 @@
         <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2022,16 +2000,16 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2042,10 +2020,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2071,13 +2049,13 @@
         <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2127,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2136,16 +2114,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2156,10 +2134,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2182,16 +2160,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2241,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2250,16 +2228,16 @@
         <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2270,10 +2248,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2296,16 +2274,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2355,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2364,16 +2342,16 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2384,10 +2362,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2412,19 +2390,19 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2473,7 +2451,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2482,16 +2460,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -2502,10 +2480,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2528,16 +2506,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2563,31 +2541,31 @@
         <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2596,30 +2574,30 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2642,16 +2620,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2677,13 +2655,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>19</v>
@@ -2701,7 +2679,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2710,30 +2688,30 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2756,16 +2734,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2815,7 +2793,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2824,16 +2802,16 @@
         <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
@@ -2844,10 +2822,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2870,16 +2848,16 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2905,13 +2883,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -2929,7 +2907,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2938,16 +2916,16 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -2958,14 +2936,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2984,16 +2962,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3043,7 +3021,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3052,16 +3030,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3072,14 +3050,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3098,16 +3076,16 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3157,7 +3135,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3175,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3186,14 +3164,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3212,16 +3190,16 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3259,19 +3237,19 @@
         <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3280,16 +3258,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3300,14 +3278,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3326,19 +3304,19 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -3375,19 +3353,19 @@
         <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3396,16 +3374,16 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3416,10 +3394,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3442,16 +3420,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3501,7 +3479,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3510,30 +3488,30 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3556,16 +3534,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3591,13 +3569,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -3615,7 +3593,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3624,30 +3602,30 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3670,16 +3648,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3705,13 +3683,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -3729,7 +3707,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3738,16 +3716,16 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -3758,10 +3736,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3784,17 +3762,15 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -3843,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3852,30 +3828,30 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3898,16 +3874,16 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3933,13 +3909,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -3957,7 +3933,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3966,30 +3942,30 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4012,19 +3988,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4073,7 +4047,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4082,30 +4056,30 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4128,16 +4102,16 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4187,7 +4161,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4196,16 +4170,16 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4216,10 +4190,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4242,13 +4216,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4299,7 +4273,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4317,7 +4291,7 @@
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4328,14 +4302,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4354,16 +4328,16 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4401,19 +4375,19 @@
         <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4422,16 +4396,16 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -4442,14 +4416,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4468,19 +4442,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4529,7 +4503,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4538,16 +4512,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -4558,17 +4532,17 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -4586,17 +4560,17 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4645,7 +4619,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -4654,30 +4628,30 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4700,17 +4674,17 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4759,7 +4733,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4768,16 +4742,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -4788,10 +4762,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4814,19 +4788,19 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -4875,7 +4849,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4884,30 +4858,30 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4930,13 +4904,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4987,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4996,16 +4970,16 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
@@ -5016,10 +4990,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5042,13 +5016,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5099,7 +5073,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5117,7 +5091,7 @@
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
@@ -5128,14 +5102,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5154,16 +5128,16 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5201,19 +5175,19 @@
         <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5222,16 +5196,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
@@ -5242,14 +5216,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5268,19 +5242,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5329,7 +5303,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5338,16 +5312,16 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -5358,10 +5332,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5384,17 +5358,15 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5443,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5452,30 +5424,30 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5498,13 +5470,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5555,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5564,22 +5536,22 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
